--- a/TekniskDokumentasjon.xlsx
+++ b/TekniskDokumentasjon.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeoslokommuneno-my.sharepoint.com/personal/aubra002_osloskolen_no/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB18D4F-8D30-4006-B58C-E20055AA2099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="36645" yWindow="9000" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>dbName</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>HmBw1yvcYpkawfFu</t>
+  </si>
+  <si>
+    <t>game4</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>10.2.2.163/localhost for testing</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +94,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +410,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010095608E42B262B646923553834AF74F49" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="2ab462d0865d5524a0d8b4bf2a3ae23d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7d18e2bc-a522-41b1-b04f-a7c90ddf6d94" xmlns:ns4="ca895afb-26c3-4d2d-990f-56cd0b9d28b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fc25155b329eb81de16c1abe8aa4a44" ns3:_="" ns4:_="">
+    <xsd:import namespace="7d18e2bc-a522-41b1-b04f-a7c90ddf6d94"/>
+    <xsd:import namespace="ca895afb-26c3-4d2d-990f-56cd0b9d28b1"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7d18e2bc-a522-41b1-b04f-a7c90ddf6d94" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ca895afb-26c3-4d2d-990f-56cd0b9d28b1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Delt med" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Delingsdetaljer" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="19" nillable="true" ma:displayName="Hash for deling av tips" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innholdstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tittel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9E7B1BB-C8D0-4E4D-B8E6-7E886493D06C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7d18e2bc-a522-41b1-b04f-a7c90ddf6d94"/>
+    <ds:schemaRef ds:uri="ca895afb-26c3-4d2d-990f-56cd0b9d28b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DFDCA42-BAA0-40F8-B733-E7E60C92EE45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77D68436-DAE3-49B9-8A40-6E99AE46F812}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ca895afb-26c3-4d2d-990f-56cd0b9d28b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7d18e2bc-a522-41b1-b04f-a7c90ddf6d94"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>